--- a/xlsx/凌志IS_intext.xlsx
+++ b/xlsx/凌志IS_intext.xlsx
@@ -29,13 +29,13 @@
     <t>凌志</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_凌志IS</t>
+    <t>政策_政策_混合动力车辆_凌志IS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%9F%A5%E7%B8%A3</t>
   </si>
   <si>
-    <t>愛知縣</t>
+    <t>爱知县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%B7%9E</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎車</t>
+    <t>轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>豐田汽車公司</t>
+    <t>丰田汽车公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97ES</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E9%A6%AC3%E7%B3%BB</t>
   </si>
   <si>
-    <t>寶馬3系</t>
+    <t>宝马3系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%A1%9E%E5%BE%B7%E6%96%AF-%E5%A5%94%E9%A9%B0</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2</t>
   </si>
   <si>
-    <t>日產</t>
+    <t>日产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Skyline</t>
   </si>
   <si>
-    <t>日產Skyline</t>
+    <t>日产Skyline</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Infiniti</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -161,31 +161,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%B7%A5%E6%A5%AD%E8%A6%8F%E6%A0%BC</t>
   </si>
   <si>
-    <t>日本工業規格</t>
+    <t>日本工业规格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>手動變速器</t>
+    <t>手动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%91%89%E7%99%BC%E5%8B%95%E6%A9%9F%E6%A0%AA%E5%BC%8F%E6%9C%83%E7%A4%BE</t>
   </si>
   <si>
-    <t>山葉發動機株式會社</t>
+    <t>山叶发动机株式会社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%92%E9%8C%B6</t>
   </si>
   <si>
-    <t>秒錶</t>
+    <t>秒表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>溫度</t>
+    <t>温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6%E7%87%83%E6%B2%B9%E7%BB%8F%E6%B5%8E%E6%80%A7</t>
@@ -197,43 +197,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%92%B0%E4%BF%9D%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國環保署</t>
+    <t>美国环保署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Supra</t>
   </si>
   <si>
-    <t>豐田Supra</t>
+    <t>丰田Supra</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0MR2</t>
   </si>
   <si>
-    <t>豐田MR2</t>
+    <t>丰田MR2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Celica</t>
   </si>
   <si>
-    <t>豐田Celica</t>
+    <t>丰田Celica</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯維加斯</t>
+    <t>拉斯维加斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97GS</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -275,25 +275,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E5%99%B4%E5%B0%84%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>燃料噴射裝置</t>
+    <t>燃料喷射装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%87%B4%E7%99%BC%E5%85%89</t>
   </si>
   <si>
-    <t>電致發光</t>
+    <t>电致发光</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8A%BD</t>
   </si>
   <si>
-    <t>藍芽</t>
+    <t>蓝芽</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_Levinson</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E7%A9%A9%E5%AE%9A%E6%8E%A7%E5%88%B6%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>電子穩定控制系統</t>
+    <t>电子稳定控制系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%9F%8F%E9%9D%88%E8%B3%BD%E9%81%93</t>
   </si>
   <si>
-    <t>紐柏靈賽道</t>
+    <t>纽柏灵赛道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%AD%E5%8A%9B</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>自動變速器</t>
+    <t>自动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%9E%81%E5%BC%8F%E5%8F%98%E9%80%9F%E5%99%A8</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%BE%8C%E9%A9%85</t>
   </si>
   <si>
-    <t>前置後驅</t>
+    <t>前置后驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>超級跑車</t>
+    <t>超级跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97LFA</t>
@@ -455,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%BE%B7%E5%8D%81%E5%A4%A7%E6%9C%80%E4%BD%B3%E6%B1%BD%E8%BB%8A%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>華德十大最佳汽車引擎</t>
+    <t>华德十大最佳汽车引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AB%BE%E5%A8%81</t>
   </si>
   <si>
-    <t>漢諾威</t>
+    <t>汉诺威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
-    <t>動畫</t>
+    <t>动画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E6%96%87%E5%AD%97D</t>
   </si>
   <si>
-    <t>頭文字D</t>
+    <t>头文字D</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0AE86</t>
   </si>
   <si>
-    <t>豐田AE86</t>
+    <t>丰田AE86</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Midnight_Club_3:_DUB_Edition</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%93%81%E9%A3%9B%E8%BB%8A</t>
   </si>
   <si>
-    <t>極品飛車</t>
+    <t>极品飞车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%93%81%E9%A3%9E%E8%BD%A6%EF%BC%9A%E6%97%A0%E9%97%B4%E8%BF%BD%E8%B8%AA</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A%E6%B5%AA%E6%BC%AB%E6%97%855</t>
   </si>
   <si>
-    <t>跑車浪漫旅5</t>
+    <t>跑车浪漫旅5</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%96%A9%E6%96%AFHS</t>
   </si>
   <si>
-    <t>雷克薩斯HS</t>
+    <t>雷克萨斯HS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%90%A8%E6%96%AFLS</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97RX</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>休旅車</t>
+    <t>休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%9E%E7%AF%B7%E8%BD%A6</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%90%A8%E6%96%AFIS_F</t>
